--- a/data/cedear_ratios_reloaded.xlsx
+++ b/data/cedear_ratios_reloaded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\federico.murphy\Documents\Stock Exchange\pull_arg_stock\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB35EEE9-5941-4379-977D-EDE34F2F05DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB244844-14EF-4FC7-B829-396C49A8470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,7 @@
     <sheet name="bono" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cedear!$A$1:$G$878</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">cedear!$H$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">cedear!$H$2:$H$878</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">cedear!$H$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">cedear!$H$2:$H$878</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cedear!$A$1:$I$878</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2738,7 +2734,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -3222,7 +3218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3583,14 +3579,20 @@
   <dimension ref="A1:I878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -32624,7 +32626,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G878" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
